--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,7 +422,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PO-1741354467514</v>
+        <v>PO-1741189286685</v>
       </c>
       <c r="B2" t="str">
         <v>halden</v>
@@ -431,18 +431,18 @@
         <v>N/A</v>
       </c>
       <c r="D2" t="str">
-        <v>Pending</v>
+        <v>Completed</v>
       </c>
       <c r="E2" t="str">
-        <v>Nonso</v>
+        <v>matt</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>PO-1741359698449</v>
+        <v>PO-1741436218692</v>
       </c>
       <c r="B3" t="str">
-        <v>Halden</v>
+        <v>Company</v>
       </c>
       <c r="C3" t="str">
         <v>N/A</v>
@@ -451,19 +451,53 @@
         <v>Pending</v>
       </c>
       <c r="E3" t="str">
-        <v>david</v>
+        <v>emek</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>PO-1741446852789</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Company</v>
+      </c>
+      <c r="C4" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E4" t="str">
+        <v>smith</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>PO-1741722600762</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C5" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E5" t="str">
+        <v>james</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -481,40 +515,62 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ppe</v>
+        <v>watch</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>boot</v>
+        <v>cups</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>hankerchief</v>
+        <v>oats</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2000</v>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>gloves</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>boot</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,7 +422,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PO-1741189286685</v>
+        <v>PO-1741354467514</v>
       </c>
       <c r="B2" t="str">
         <v>halden</v>
@@ -431,18 +431,18 @@
         <v>N/A</v>
       </c>
       <c r="D2" t="str">
-        <v>Completed</v>
+        <v>Pending</v>
       </c>
       <c r="E2" t="str">
-        <v>matt</v>
+        <v>Nonso</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>PO-1741436218692</v>
+        <v>PO-1741359698449</v>
       </c>
       <c r="B3" t="str">
-        <v>Company</v>
+        <v>Halden</v>
       </c>
       <c r="C3" t="str">
         <v>N/A</v>
@@ -451,53 +451,19 @@
         <v>Pending</v>
       </c>
       <c r="E3" t="str">
-        <v>emek</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>PO-1741446852789</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Company</v>
-      </c>
-      <c r="C4" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E4" t="str">
-        <v>smith</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>PO-1741722600762</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Halden</v>
-      </c>
-      <c r="C5" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E5" t="str">
-        <v>james</v>
+        <v>david</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -515,62 +481,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>watch</v>
+        <v>ppe</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>544</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>cups</v>
+        <v>boot</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>oats</v>
+        <v>hankerchief</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>gloves</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>boot</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,16 +488,33 @@
         <v>james</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>PO-1742052095387</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Company</v>
+      </c>
+      <c r="C6" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Completed</v>
+      </c>
+      <c r="E6" t="str">
+        <v>nonso</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -568,9 +585,20 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>egg</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2344</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -4,7 +4,6 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="orders" sheetId="1" r:id="rId1"/>
-    <sheet name="productdata" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -398,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,186 +418,39 @@
       <c r="E1" t="str">
         <v>orderedBy</v>
       </c>
+      <c r="F1" t="str">
+        <v>urgency</v>
+      </c>
+      <c r="G1" t="str">
+        <v>remark</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PO-1741189286685</v>
+        <v>PO-1742243192882</v>
       </c>
       <c r="B2" t="str">
-        <v>halden</v>
+        <v>Company</v>
       </c>
       <c r="C2" t="str">
-        <v>N/A</v>
+        <v>david.umunna@halden.ng</v>
       </c>
       <c r="D2" t="str">
-        <v>Completed</v>
+        <v>Pending</v>
       </c>
       <c r="E2" t="str">
-        <v>matt</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>PO-1741436218692</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Company</v>
-      </c>
-      <c r="C3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E3" t="str">
-        <v>emek</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>PO-1741446852789</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Company</v>
-      </c>
-      <c r="C4" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E4" t="str">
-        <v>smith</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>PO-1741722600762</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Halden</v>
-      </c>
-      <c r="C5" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E5" t="str">
-        <v>james</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>PO-1742052095387</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Company</v>
-      </c>
-      <c r="C6" t="str">
-        <v>david.umunna@halden.ng</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Completed</v>
-      </c>
-      <c r="E6" t="str">
-        <v>nonso</v>
+        <v>david</v>
+      </c>
+      <c r="F2" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G2" t="str">
+        <v>i want a boot and a jumpsuit for operation of forklift</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="C1" t="str">
-        <v>price</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>watch</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>cups</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>oats</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>gloves</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>boot</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>egg</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>2344</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,7 +422,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PO-1741189286685</v>
+        <v>PO-1741354467514</v>
       </c>
       <c r="B2" t="str">
         <v>halden</v>
@@ -431,18 +431,18 @@
         <v>N/A</v>
       </c>
       <c r="D2" t="str">
-        <v>Completed</v>
+        <v>Pending</v>
       </c>
       <c r="E2" t="str">
-        <v>matt</v>
+        <v>Nonso</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>PO-1741436218692</v>
+        <v>PO-1741359698449</v>
       </c>
       <c r="B3" t="str">
-        <v>Company</v>
+        <v>Halden</v>
       </c>
       <c r="C3" t="str">
         <v>N/A</v>
@@ -451,70 +451,19 @@
         <v>Pending</v>
       </c>
       <c r="E3" t="str">
-        <v>emek</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>PO-1741446852789</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Company</v>
-      </c>
-      <c r="C4" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E4" t="str">
-        <v>smith</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>PO-1741722600762</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Halden</v>
-      </c>
-      <c r="C5" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E5" t="str">
-        <v>james</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>PO-1742052095387</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Company</v>
-      </c>
-      <c r="C6" t="str">
-        <v>david.umunna@halden.ng</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Completed</v>
-      </c>
-      <c r="E6" t="str">
-        <v>nonso</v>
+        <v>david</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -532,73 +481,40 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>watch</v>
+        <v>ppe</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>544</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>cups</v>
+        <v>boot</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>oats</v>
+        <v>hankerchief</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>gloves</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>boot</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>egg</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>2344</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,6 +419,12 @@
       <c r="E1" t="str">
         <v>orderedBy</v>
       </c>
+      <c r="F1" t="str">
+        <v>urgency</v>
+      </c>
+      <c r="G1" t="str">
+        <v>remark</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -436,6 +442,12 @@
       <c r="E2" t="str">
         <v>Nonso</v>
       </c>
+      <c r="F2" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G2" t="str">
+        <v>N/A</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -453,10 +465,16 @@
       <c r="E3" t="str">
         <v>david</v>
       </c>
+      <c r="F3" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G3" t="str">
+        <v>N/A</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -470,7 +488,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Name</v>
+        <v>name</v>
       </c>
       <c r="B1" t="str">
         <v>quantity</v>
@@ -481,7 +499,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ppe</v>
+        <v>N/A</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -492,7 +510,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>boot</v>
+        <v>N/A</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -503,7 +521,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>hankerchief</v>
+        <v>N/A</v>
       </c>
       <c r="B4">
         <v>1</v>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,16 +472,85 @@
         <v>N/A</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C4" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E4" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G4" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C5" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E5" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G5" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C6" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E6" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G6" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,9 +599,42 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -428,117 +428,117 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>PO-1741354467514</v>
+        <v>PO-1742590079101</v>
       </c>
       <c r="B2" t="str">
-        <v>halden</v>
+        <v>Halden</v>
       </c>
       <c r="C2" t="str">
-        <v>N/A</v>
+        <v>david.umunna@halden.ng</v>
       </c>
       <c r="D2" t="str">
         <v>Pending</v>
       </c>
       <c r="E2" t="str">
-        <v>Nonso</v>
+        <v>umunnna David</v>
       </c>
       <c r="F2" t="str">
-        <v>N/A</v>
+        <v>Urgent</v>
       </c>
       <c r="G2" t="str">
-        <v>N/A</v>
+        <v>this is another request</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>PO-1741359698449</v>
+        <v>PO-1742643542732</v>
       </c>
       <c r="B3" t="str">
         <v>Halden</v>
       </c>
       <c r="C3" t="str">
-        <v>N/A</v>
+        <v>david.umunna@halden.ng</v>
       </c>
       <c r="D3" t="str">
         <v>Pending</v>
       </c>
       <c r="E3" t="str">
-        <v>david</v>
+        <v>umunnna David</v>
       </c>
       <c r="F3" t="str">
-        <v>N/A</v>
+        <v>Urgent</v>
       </c>
       <c r="G3" t="str">
-        <v>N/A</v>
+        <v>this is another one</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>PO-1742483426415</v>
+        <v>PO-1742646113051</v>
       </c>
       <c r="B4" t="str">
         <v>Halden</v>
       </c>
       <c r="C4" t="str">
-        <v>c.onu@haldengroup.ng</v>
+        <v>david.umunna@halden.ng</v>
       </c>
       <c r="D4" t="str">
         <v>Pending</v>
       </c>
       <c r="E4" t="str">
-        <v>chinonso onu</v>
+        <v>umunnna David</v>
       </c>
       <c r="F4" t="str">
         <v>Urgent</v>
       </c>
       <c r="G4" t="str">
-        <v>this is another</v>
+        <v>this is the next file</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>PO-1742483547511</v>
+        <v>PO-1742652515186</v>
       </c>
       <c r="B5" t="str">
         <v>Halden</v>
       </c>
       <c r="C5" t="str">
-        <v>c.onu@haldengroup.ng</v>
+        <v>david.umunna@halden.ng</v>
       </c>
       <c r="D5" t="str">
         <v>Pending</v>
       </c>
       <c r="E5" t="str">
-        <v>chinonso onu</v>
+        <v>umunnna David</v>
       </c>
       <c r="F5" t="str">
         <v>Urgent</v>
       </c>
       <c r="G5" t="str">
-        <v>this is the file i sent</v>
+        <v>this is another</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>PO-1742483740973</v>
+        <v>PO-1742652921351</v>
       </c>
       <c r="B6" t="str">
         <v>Halden</v>
       </c>
       <c r="C6" t="str">
-        <v>c.onu@haldengroup.ng</v>
+        <v>david.umunna@halden.ng</v>
       </c>
       <c r="D6" t="str">
         <v>Pending</v>
       </c>
       <c r="E6" t="str">
-        <v>chinonso onu</v>
+        <v>umunnna David</v>
       </c>
       <c r="F6" t="str">
         <v>Urgent</v>
       </c>
       <c r="G6" t="str">
-        <v>this is another file i wish to send</v>
+        <v>this is one for the boys</v>
       </c>
     </row>
   </sheetData>
@@ -568,68 +568,68 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>N/A</v>
+        <v>product 1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>N/A</v>
+        <v>product1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>700</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>N/A</v>
+        <v>product 2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>product_4</v>
+        <v>product 1</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>product5</v>
+        <v>prod4</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>product_3</v>
+        <v>proiduct2</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>30000</v>
+        <v>1222</v>
       </c>
     </row>
   </sheetData>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -1,42 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\dev\procurement_app\procurement_api\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5746B290-28F7-428E-B898-87CD4F053567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="orders" sheetId="1" r:id="rId1"/>
     <sheet name="productdata" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+  <si>
+    <t>orderNumber</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>orderedBy</t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>PO-1741354467514</t>
+  </si>
+  <si>
+    <t>halden</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Nonso</t>
+  </si>
+  <si>
+    <t>PO-1741359698449</t>
+  </si>
+  <si>
+    <t>Halden</t>
+  </si>
+  <si>
+    <t>david</t>
+  </si>
+  <si>
+    <t>PO-1742483426415</t>
+  </si>
+  <si>
+    <t>c.onu@haldengroup.ng</t>
+  </si>
+  <si>
+    <t>chinonso onu</t>
+  </si>
+  <si>
+    <t>Urgent</t>
+  </si>
+  <si>
+    <t>this is another</t>
+  </si>
+  <si>
+    <t>PO-1742483547511</t>
+  </si>
+  <si>
+    <t>this is the file i sent</t>
+  </si>
+  <si>
+    <t>PO-1742483740973</t>
+  </si>
+  <si>
+    <t>this is another file i wish to send</t>
+  </si>
+  <si>
+    <t>PO-1742573369348</t>
+  </si>
+  <si>
+    <t>this is another try</t>
+  </si>
+  <si>
+    <t>PO-1742825947766</t>
+  </si>
+  <si>
+    <t>VeryUrgent</t>
+  </si>
+  <si>
+    <t>this is another one</t>
+  </si>
+  <si>
+    <t>PO-1742826158290</t>
+  </si>
+  <si>
+    <t>PO-1742826295348</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>product_4</t>
+  </si>
+  <si>
+    <t>product5</t>
+  </si>
+  <si>
+    <t>product_3</t>
+  </si>
+  <si>
+    <t>product 1</t>
+  </si>
+  <si>
+    <t>product 2</t>
+  </si>
+  <si>
+    <t>product 4</t>
+  </si>
+  <si>
+    <t>product 3</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -66,13 +180,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,244 +519,404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>orderNumber</v>
-      </c>
-      <c r="B1" t="str">
-        <v>supplier</v>
-      </c>
-      <c r="C1" t="str">
-        <v>email</v>
-      </c>
-      <c r="D1" t="str">
-        <v>status</v>
-      </c>
-      <c r="E1" t="str">
-        <v>orderedBy</v>
-      </c>
-      <c r="F1" t="str">
-        <v>urgency</v>
-      </c>
-      <c r="G1" t="str">
-        <v>remark</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>PO-1742590079101</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Halden</v>
-      </c>
-      <c r="C2" t="str">
-        <v>david.umunna@halden.ng</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E2" t="str">
-        <v>umunnna David</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Urgent</v>
-      </c>
-      <c r="G2" t="str">
-        <v>this is another request</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>PO-1742643542732</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Halden</v>
-      </c>
-      <c r="C3" t="str">
-        <v>david.umunna@halden.ng</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E3" t="str">
-        <v>umunnna David</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Urgent</v>
-      </c>
-      <c r="G3" t="str">
-        <v>this is another one</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>PO-1742646113051</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Halden</v>
-      </c>
-      <c r="C4" t="str">
-        <v>david.umunna@halden.ng</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E4" t="str">
-        <v>umunnna David</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Urgent</v>
-      </c>
-      <c r="G4" t="str">
-        <v>this is the next file</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>PO-1742652515186</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Halden</v>
-      </c>
-      <c r="C5" t="str">
-        <v>david.umunna@halden.ng</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E5" t="str">
-        <v>umunnna David</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Urgent</v>
-      </c>
-      <c r="G5" t="str">
-        <v>this is another</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>PO-1742652921351</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Halden</v>
-      </c>
-      <c r="C6" t="str">
-        <v>david.umunna@halden.ng</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Pending</v>
-      </c>
-      <c r="E6" t="str">
-        <v>umunnna David</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Urgent</v>
-      </c>
-      <c r="G6" t="str">
-        <v>this is one for the boys</v>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
+    <ignoredError sqref="A1:G10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>quantity</v>
-      </c>
-      <c r="C1" t="str">
-        <v>price</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>product 1</v>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>product1</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>product 2</v>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>product 1</v>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>prod4</v>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>proiduct2</v>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1222</v>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError sqref="A1:C12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2243,16 +2243,476 @@
         <v>this is another file to send</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B81" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C81" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F81" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G81" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C82" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E82" t="str">
+        <v>david</v>
+      </c>
+      <c r="F82" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G82" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C83" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E83" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G83" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C84" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E84" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G84" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C85" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E85" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G85" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C86" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E86" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G86" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C87" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E87" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F87" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G87" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C88" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E88" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G88" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C89" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E89" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G89" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C90" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E90" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F90" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G90" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B91" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C91" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F91" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G91" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C92" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E92" t="str">
+        <v>david</v>
+      </c>
+      <c r="F92" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G92" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C93" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E93" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G93" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C94" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E94" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G94" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C95" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E95" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G95" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C96" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E96" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G96" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C97" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E97" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F97" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G97" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C98" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E98" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G98" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C99" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E99" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G99" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C100" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E100" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F100" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G100" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G80"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3313,9 +3773,273 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C96"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C120"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2703,16 +2703,821 @@
         <v>this is another file to send</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C101" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E101" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G101" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C102" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E102" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G102" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C103" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E103" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G103" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C104" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E104" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G104" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C105" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E105" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G105" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C106" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E106" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G106" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C107" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E107" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F107" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G107" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C108" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E108" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G108" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C109" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E109" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G109" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C110" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E110" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F110" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G110" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C111" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E111" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F111" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G111" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C112" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E112" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F112" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G112" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C113" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E113" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F113" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G113" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C114" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E114" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F114" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G114" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C115" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E115" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F115" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G115" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C116" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E116" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G116" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C117" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E117" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F117" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G117" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C118" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E118" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F118" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G118" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C119" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E119" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F119" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G119" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C120" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E120" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G120" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C121" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E121" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F121" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G121" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C122" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E122" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G122" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C123" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E123" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F123" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G123" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C124" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E124" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G124" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C125" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E125" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F125" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G125" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C126" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E126" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F126" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G126" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C127" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E127" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G127" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C128" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E128" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F128" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G128" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C129" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E129" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F129" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G129" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B130" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C130" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E130" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F130" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G130" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C131" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E131" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F131" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G131" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C132" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E132" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F132" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G132" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C133" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E133" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G133" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C134" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E134" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F134" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G134" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C135" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E135" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F135" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G135" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G100"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G135"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4037,9 +4842,471 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1222</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C120"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C162"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -3508,16 +3508,1396 @@
         <v>this is one for the boys</v>
       </c>
     </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B136" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C136" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F136" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G136" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C137" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E137" t="str">
+        <v>david</v>
+      </c>
+      <c r="F137" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G137" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C138" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E138" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F138" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G138" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B139" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C139" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E139" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F139" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G139" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B140" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C140" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E140" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F140" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G140" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B141" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C141" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E141" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F141" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G141" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B142" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C142" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E142" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F142" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G142" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B143" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C143" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E143" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F143" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G143" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B144" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C144" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E144" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F144" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G144" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B145" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C145" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E145" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F145" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G145" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B146" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C146" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E146" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F146" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G146" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C147" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E147" t="str">
+        <v>david</v>
+      </c>
+      <c r="F147" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G147" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C148" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E148" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F148" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G148" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B149" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C149" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D149" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E149" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F149" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G149" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C150" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E150" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F150" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G150" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C151" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E151" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F151" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G151" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B152" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C152" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E152" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F152" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G152" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B153" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C153" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E153" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F153" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G153" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B154" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C154" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E154" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F154" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G154" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B155" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C155" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E155" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F155" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G155" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B156" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C156" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D156" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E156" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F156" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G156" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B157" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C157" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E157" t="str">
+        <v>david</v>
+      </c>
+      <c r="F157" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G157" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B158" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C158" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D158" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E158" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F158" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G158" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B159" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C159" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E159" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F159" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G159" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B160" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C160" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D160" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E160" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F160" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G160" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B161" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C161" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E161" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F161" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G161" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B162" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C162" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E162" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F162" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G162" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B163" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C163" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E163" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F163" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G163" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B164" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C164" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E164" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F164" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G164" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B165" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C165" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E165" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F165" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G165" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B166" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C166" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E166" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F166" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G166" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B167" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C167" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E167" t="str">
+        <v>david</v>
+      </c>
+      <c r="F167" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G167" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B168" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C168" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E168" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F168" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G168" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C169" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E169" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F169" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G169" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C170" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E170" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F170" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G170" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C171" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E171" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F171" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G171" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C172" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E172" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F172" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G172" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C173" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E173" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F173" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G173" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C174" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E174" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F174" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G174" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C175" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E175" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F175" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G175" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B176" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C176" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D176" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E176" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F176" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G176" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B177" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C177" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E177" t="str">
+        <v>david</v>
+      </c>
+      <c r="F177" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G177" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B178" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C178" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E178" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F178" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G178" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B179" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C179" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E179" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F179" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G179" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B180" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C180" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E180" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F180" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G180" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B181" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C181" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D181" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E181" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F181" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G181" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B182" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C182" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D182" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E182" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F182" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G182" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B183" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C183" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E183" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F183" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G183" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B184" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C184" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D184" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E184" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F184" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G184" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B185" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C185" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D185" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E185" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F185" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G185" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B186" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C186" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D186" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E186" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F186" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G186" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B187" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C187" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E187" t="str">
+        <v>david</v>
+      </c>
+      <c r="F187" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G187" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B188" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C188" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E188" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F188" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G188" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B189" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C189" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D189" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E189" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F189" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G189" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B190" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C190" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E190" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F190" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G190" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B191" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C191" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E191" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F191" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G191" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B192" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C192" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E192" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F192" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G192" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B193" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C193" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E193" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F193" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G193" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B194" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C194" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E194" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F194" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G194" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B195" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C195" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E195" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F195" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G195" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G135"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G195"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C234"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5304,9 +6684,801 @@
         <v>1222</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+      <c r="C163">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+      <c r="C175">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="C187">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B188">
+        <v>4</v>
+      </c>
+      <c r="C188">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
+      <c r="C199">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B200">
+        <v>4</v>
+      </c>
+      <c r="C200">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B211">
+        <v>5</v>
+      </c>
+      <c r="C211">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B212">
+        <v>4</v>
+      </c>
+      <c r="C212">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B223">
+        <v>5</v>
+      </c>
+      <c r="C223">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B224">
+        <v>4</v>
+      </c>
+      <c r="C224">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C162"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C234"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G320"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4888,16 +4888,2891 @@
         <v>this is another file to send</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B196" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C196" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E196" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F196" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G196" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C197" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E197" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F197" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G197" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C198" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E198" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F198" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G198" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C199" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E199" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F199" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G199" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C200" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E200" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F200" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G200" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B201" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C201" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E201" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F201" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G201" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C202" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E202" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F202" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G202" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C203" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E203" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F203" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G203" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C204" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E204" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F204" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G204" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C205" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E205" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F205" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G205" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B206" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C206" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D206" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E206" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F206" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G206" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B207" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C207" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D207" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E207" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F207" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G207" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C208" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D208" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E208" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F208" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G208" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C209" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E209" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F209" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G209" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C210" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E210" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F210" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G210" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B211" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C211" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E211" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F211" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G211" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B212" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C212" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D212" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E212" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F212" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G212" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B213" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C213" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E213" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F213" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G213" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B214" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C214" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E214" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F214" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G214" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B215" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C215" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D215" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E215" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F215" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G215" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B216" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C216" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D216" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E216" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F216" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G216" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B217" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C217" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D217" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E217" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F217" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G217" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B218" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C218" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D218" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E218" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F218" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G218" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B219" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C219" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D219" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E219" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F219" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G219" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B220" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C220" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D220" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E220" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F220" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G220" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B221" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C221" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D221" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E221" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F221" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G221" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B222" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C222" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D222" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E222" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F222" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G222" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B223" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C223" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D223" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E223" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F223" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G223" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B224" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C224" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D224" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E224" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F224" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G224" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B225" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C225" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D225" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E225" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F225" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G225" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B226" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C226" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D226" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E226" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F226" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G226" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B227" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C227" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D227" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E227" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F227" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G227" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B228" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C228" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D228" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E228" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F228" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G228" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B229" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C229" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D229" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E229" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F229" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G229" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B230" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C230" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D230" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E230" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F230" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G230" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B231" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C231" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D231" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E231" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F231" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G231" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B232" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C232" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D232" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E232" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F232" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G232" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B233" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C233" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D233" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E233" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F233" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G233" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B234" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C234" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D234" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E234" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F234" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G234" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B235" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C235" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D235" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E235" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F235" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G235" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B236" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C236" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D236" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E236" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F236" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G236" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B237" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C237" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D237" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E237" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F237" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G237" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B238" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C238" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D238" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E238" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F238" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G238" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B239" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C239" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D239" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E239" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F239" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G239" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B240" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C240" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D240" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E240" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F240" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G240" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B241" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C241" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D241" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E241" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F241" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G241" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B242" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C242" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D242" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E242" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F242" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G242" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B243" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C243" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D243" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E243" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F243" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G243" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B244" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C244" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D244" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E244" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F244" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G244" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B245" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C245" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D245" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E245" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F245" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G245" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B246" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C246" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D246" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E246" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F246" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G246" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B247" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C247" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D247" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E247" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F247" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G247" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B248" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C248" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D248" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E248" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F248" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G248" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B249" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C249" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D249" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E249" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F249" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G249" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B250" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C250" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D250" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E250" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F250" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G250" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B251" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C251" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D251" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E251" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F251" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G251" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B252" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C252" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D252" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E252" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F252" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G252" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B253" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C253" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D253" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E253" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F253" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G253" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B254" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C254" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D254" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E254" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F254" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G254" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B255" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C255" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D255" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E255" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F255" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G255" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B256" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C256" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D256" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E256" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F256" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G256" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B257" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C257" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D257" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E257" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F257" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G257" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B258" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C258" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D258" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E258" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F258" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G258" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B259" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C259" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D259" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E259" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F259" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G259" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B260" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C260" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D260" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E260" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F260" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G260" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B261" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C261" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D261" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E261" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F261" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G261" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B262" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C262" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D262" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E262" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F262" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G262" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B263" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C263" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D263" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E263" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F263" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G263" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B264" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C264" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D264" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E264" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F264" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G264" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B265" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C265" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D265" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E265" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F265" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G265" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B266" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C266" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D266" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E266" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F266" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G266" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B267" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C267" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D267" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E267" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F267" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G267" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B268" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C268" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D268" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E268" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F268" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G268" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B269" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C269" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D269" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E269" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F269" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G269" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B270" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C270" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D270" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E270" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F270" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G270" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B271" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C271" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D271" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E271" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F271" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G271" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B272" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C272" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D272" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E272" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F272" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G272" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B273" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C273" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D273" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E273" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F273" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G273" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B274" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C274" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D274" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E274" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F274" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G274" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B275" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C275" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D275" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E275" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F275" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G275" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B276" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C276" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D276" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E276" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F276" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G276" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B277" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C277" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D277" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E277" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F277" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G277" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B278" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C278" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D278" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E278" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F278" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G278" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B279" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C279" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D279" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E279" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F279" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G279" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B280" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C280" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D280" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E280" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F280" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G280" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B281" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C281" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D281" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E281" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F281" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G281" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B282" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C282" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D282" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E282" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F282" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G282" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B283" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C283" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D283" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E283" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F283" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G283" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B284" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C284" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D284" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E284" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F284" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G284" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B285" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C285" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D285" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E285" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F285" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G285" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B286" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C286" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D286" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E286" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F286" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G286" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B287" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C287" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D287" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E287" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F287" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G287" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B288" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C288" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D288" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E288" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F288" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G288" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B289" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C289" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D289" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E289" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F289" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G289" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B290" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C290" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D290" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E290" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F290" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G290" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B291" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C291" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D291" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E291" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F291" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G291" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B292" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C292" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D292" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E292" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F292" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G292" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B293" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C293" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D293" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E293" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F293" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G293" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B294" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C294" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D294" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E294" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F294" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G294" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B295" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C295" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D295" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E295" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F295" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G295" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B296" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C296" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D296" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E296" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F296" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G296" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B297" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C297" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D297" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E297" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F297" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G297" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B298" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C298" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D298" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E298" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F298" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G298" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B299" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C299" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D299" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E299" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F299" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G299" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B300" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C300" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D300" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E300" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F300" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G300" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B301" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C301" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D301" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E301" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F301" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G301" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B302" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C302" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D302" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E302" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F302" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G302" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B303" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C303" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D303" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E303" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F303" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G303" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B304" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C304" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D304" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E304" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F304" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G304" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B305" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C305" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D305" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E305" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F305" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G305" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B306" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C306" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D306" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E306" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F306" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G306" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B307" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C307" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D307" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E307" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F307" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G307" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B308" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C308" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D308" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E308" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F308" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G308" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B309" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C309" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D309" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E309" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F309" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G309" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B310" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C310" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D310" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E310" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F310" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G310" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B311" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C311" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D311" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E311" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F311" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G311" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B312" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C312" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D312" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E312" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F312" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G312" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B313" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C313" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D313" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E313" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F313" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G313" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B314" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C314" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D314" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E314" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F314" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G314" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B315" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C315" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D315" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E315" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F315" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G315" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>PO-1742590079101</v>
+      </c>
+      <c r="B316" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C316" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D316" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E316" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F316" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G316" t="str">
+        <v>this is another request</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>PO-1742643542732</v>
+      </c>
+      <c r="B317" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C317" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D317" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E317" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F317" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G317" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>PO-1742646113051</v>
+      </c>
+      <c r="B318" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C318" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D318" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E318" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F318" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G318" t="str">
+        <v>this is the next file</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>PO-1742652515186</v>
+      </c>
+      <c r="B319" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C319" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D319" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E319" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F319" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G319" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>PO-1742652921351</v>
+      </c>
+      <c r="B320" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C320" t="str">
+        <v>david.umunna@halden.ng</v>
+      </c>
+      <c r="D320" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E320" t="str">
+        <v>umunnna David</v>
+      </c>
+      <c r="F320" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G320" t="str">
+        <v>this is one for the boys</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G195"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G320"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C384"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -7476,9 +10351,1659 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>prod4</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>proiduct2</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>1222</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C234"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C384"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4888,16 +4888,246 @@
         <v>this is another file to send</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B196" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C196" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D196" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E196" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F196" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G196" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B197" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C197" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D197" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E197" t="str">
+        <v>david</v>
+      </c>
+      <c r="F197" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G197" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B198" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C198" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D198" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E198" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F198" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G198" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B199" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C199" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D199" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E199" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F199" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G199" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B200" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C200" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D200" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E200" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F200" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G200" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B201" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C201" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D201" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E201" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F201" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G201" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B202" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C202" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E202" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F202" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G202" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B203" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C203" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E203" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F203" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G203" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B204" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C204" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E204" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F204" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G204" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B205" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C205" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E205" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F205" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G205" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G195"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G205"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C234"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -7476,9 +7706,141 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B235">
+        <v>5</v>
+      </c>
+      <c r="C235">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+      <c r="C236">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C234"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C246"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:G255"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5118,16 +5118,1166 @@
         <v>this is another file to send</v>
       </c>
     </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B206" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C206" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D206" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E206" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F206" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G206" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B207" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C207" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D207" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E207" t="str">
+        <v>david</v>
+      </c>
+      <c r="F207" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G207" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B208" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C208" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D208" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E208" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F208" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G208" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B209" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C209" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E209" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F209" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G209" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B210" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C210" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D210" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E210" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F210" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G210" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B211" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C211" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E211" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F211" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G211" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B212" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C212" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D212" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E212" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F212" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G212" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B213" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C213" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E213" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F213" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G213" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B214" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C214" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E214" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F214" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G214" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B215" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C215" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D215" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E215" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F215" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G215" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B216" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C216" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D216" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E216" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F216" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G216" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B217" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C217" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D217" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E217" t="str">
+        <v>david</v>
+      </c>
+      <c r="F217" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G217" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B218" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C218" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D218" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E218" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F218" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G218" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B219" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C219" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D219" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E219" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F219" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G219" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B220" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C220" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D220" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E220" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F220" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G220" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B221" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C221" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D221" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E221" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F221" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G221" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B222" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C222" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D222" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E222" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F222" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G222" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B223" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C223" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D223" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E223" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F223" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G223" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B224" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C224" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D224" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E224" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F224" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G224" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B225" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C225" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D225" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E225" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F225" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G225" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B226" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C226" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D226" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E226" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F226" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G226" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B227" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C227" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D227" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E227" t="str">
+        <v>david</v>
+      </c>
+      <c r="F227" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G227" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B228" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C228" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D228" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E228" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F228" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G228" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B229" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C229" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D229" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E229" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F229" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G229" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B230" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C230" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D230" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E230" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F230" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G230" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B231" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C231" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D231" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E231" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F231" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G231" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B232" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C232" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D232" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E232" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F232" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G232" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B233" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C233" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D233" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E233" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F233" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G233" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B234" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C234" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D234" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E234" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F234" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G234" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B235" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C235" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D235" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E235" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F235" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G235" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B236" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C236" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D236" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E236" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F236" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G236" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B237" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C237" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D237" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E237" t="str">
+        <v>david</v>
+      </c>
+      <c r="F237" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G237" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B238" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C238" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D238" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E238" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F238" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G238" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B239" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C239" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D239" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E239" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F239" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G239" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B240" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C240" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D240" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E240" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F240" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G240" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B241" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C241" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D241" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E241" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F241" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G241" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B242" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C242" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D242" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E242" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F242" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G242" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B243" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C243" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D243" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E243" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F243" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G243" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B244" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C244" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D244" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E244" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F244" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G244" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B245" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C245" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D245" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E245" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F245" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G245" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>PO-1741354467514</v>
+      </c>
+      <c r="B246" t="str">
+        <v>halden</v>
+      </c>
+      <c r="C246" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D246" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E246" t="str">
+        <v>Nonso</v>
+      </c>
+      <c r="F246" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G246" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>PO-1741359698449</v>
+      </c>
+      <c r="B247" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C247" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D247" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E247" t="str">
+        <v>david</v>
+      </c>
+      <c r="F247" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="G247" t="str">
+        <v>N/A</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B248" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C248" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D248" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E248" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F248" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G248" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B249" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C249" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D249" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E249" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F249" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G249" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B250" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C250" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D250" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E250" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F250" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G250" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B251" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C251" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D251" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E251" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F251" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G251" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B252" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C252" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D252" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E252" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F252" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G252" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B253" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C253" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D253" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E253" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F253" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G253" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B254" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C254" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D254" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E254" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F254" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G254" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B255" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C255" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D255" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E255" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F255" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G255" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G205"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G255"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C306"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -7838,9 +8988,669 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B247">
+        <v>5</v>
+      </c>
+      <c r="C247">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B248">
+        <v>4</v>
+      </c>
+      <c r="C248">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B259">
+        <v>5</v>
+      </c>
+      <c r="C259">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B260">
+        <v>4</v>
+      </c>
+      <c r="C260">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B271">
+        <v>5</v>
+      </c>
+      <c r="C271">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B272">
+        <v>4</v>
+      </c>
+      <c r="C272">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B283">
+        <v>5</v>
+      </c>
+      <c r="C283">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B284">
+        <v>4</v>
+      </c>
+      <c r="C284">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B295">
+        <v>5</v>
+      </c>
+      <c r="C295">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B296">
+        <v>4</v>
+      </c>
+      <c r="C296">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C246"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C306"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/orders.xlsx
+++ b/orders.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6268,16 +6268,315 @@
         <v>this is another file to send</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>PO-1742483426415</v>
+      </c>
+      <c r="B256" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C256" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D256" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E256" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F256" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G256" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>PO-1742483547511</v>
+      </c>
+      <c r="B257" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C257" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D257" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E257" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F257" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G257" t="str">
+        <v>this is the file i sent</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>PO-1742483740973</v>
+      </c>
+      <c r="B258" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C258" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D258" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E258" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F258" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G258" t="str">
+        <v>this is another file i wish to send</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>PO-1742573369348</v>
+      </c>
+      <c r="B259" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C259" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D259" t="str">
+        <v>Approved</v>
+      </c>
+      <c r="E259" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F259" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G259" t="str">
+        <v>this is another try</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>PO-1742825947766</v>
+      </c>
+      <c r="B260" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C260" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D260" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E260" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F260" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G260" t="str">
+        <v>this is another one</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>PO-1742826158290</v>
+      </c>
+      <c r="B261" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C261" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D261" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E261" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F261" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G261" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>PO-1742826295348</v>
+      </c>
+      <c r="B262" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C262" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D262" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E262" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F262" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G262" t="str">
+        <v>this is another</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>PO-1742827766463</v>
+      </c>
+      <c r="B263" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C263" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D263" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E263" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F263" t="str">
+        <v>NotUrgent</v>
+      </c>
+      <c r="G263" t="str">
+        <v>this is another file to send</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>PO-1743091846772</v>
+      </c>
+      <c r="B264" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C264" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D264" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E264" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F264" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G264" t="str">
+        <v>more than one file</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>PO-1743159628915</v>
+      </c>
+      <c r="B265" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C265" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D265" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E265" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F265" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G265" t="str">
+        <v>these are multiple files</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>PO-1743159748725</v>
+      </c>
+      <c r="B266" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C266" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D266" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E266" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F266" t="str">
+        <v>VeryUrgent</v>
+      </c>
+      <c r="G266" t="str">
+        <v>these are the images</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>PO-1743160123844</v>
+      </c>
+      <c r="B267" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C267" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D267" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E267" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F267" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G267" t="str">
+        <v>this is the file im sending</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>PO-1743160431389</v>
+      </c>
+      <c r="B268" t="str">
+        <v>Halden</v>
+      </c>
+      <c r="C268" t="str">
+        <v>c.onu@haldengroup.ng</v>
+      </c>
+      <c r="D268" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="E268" t="str">
+        <v>chinonso onu</v>
+      </c>
+      <c r="F268" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="G268" t="str">
+        <v>these are the files</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G255"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G268"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C306"/>
+  <dimension ref="A1:C320"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -9648,9 +9947,163 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>product_4</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>product5</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>product_3</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>product 2</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>product 4</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>product 3</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>product 1</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>product1</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>product34</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317">
+        <v>43222</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>product 23</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>product 23</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>product43</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320">
+        <v>12334</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C306"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C320"/>
   </ignoredErrors>
 </worksheet>
 </file>